--- a/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1.xlsx
+++ b/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>01-13 11:16:35 Set state passed</t>
+          <t>01-18 10:39:23 Set state passed</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>01-13 11:16:39 Set state passed</t>
+          <t>01-18 10:39:27 Set state passed</t>
         </is>
       </c>
     </row>

--- a/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1.xlsx
+++ b/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>01-18 10:39:23 Set state passed</t>
+          <t>01-22 12:49:34 Set state passed</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>01-18 10:39:27 Set state passed</t>
+          <t>01-22 12:49:38 Set state passed</t>
         </is>
       </c>
     </row>

--- a/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1.xlsx
+++ b/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>01-22 12:49:34 Set state passed</t>
+          <t>01-30 21:57:56 Set state passed</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>01-22 12:49:38 Set state passed</t>
+          <t>01-30 21:57:59 Set state passed</t>
         </is>
       </c>
     </row>
